--- a/builds/development/data/maindata.xlsx
+++ b/builds/development/data/maindata.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="greenline_ridership" sheetId="1" r:id="rId1"/>
     <sheet name="blueline_ridership" sheetId="2" r:id="rId2"/>
-    <sheet name="bus_ridership" sheetId="3" r:id="rId3"/>
-    <sheet name="source" sheetId="4" r:id="rId4"/>
+    <sheet name="source" sheetId="4" r:id="rId3"/>
+    <sheet name="layout" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>station</t>
   </si>
@@ -234,16 +234,118 @@
     <t>MOA Transit Station</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Source: Metro Transit</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>greeline_ridership</t>
+  </si>
+  <si>
+    <t>blueline_ridership</t>
+  </si>
+  <si>
+    <t>Green Line ridership numbers by stop, 2014-2015</t>
+  </si>
+  <si>
+    <t>Blue Line ridership numbers by stop, 2014-2015</t>
+  </si>
+  <si>
+    <t>Metro Transit</t>
+  </si>
+  <si>
+    <t>LRT Green Line station</t>
+  </si>
+  <si>
+    <t>June 2014 ridership</t>
+  </si>
+  <si>
+    <t>July 2014 ridership</t>
+  </si>
+  <si>
+    <t>August 2014 ridership</t>
+  </si>
+  <si>
+    <t>September 2014 ridership</t>
+  </si>
+  <si>
+    <t>October 2014 ridership</t>
+  </si>
+  <si>
+    <t>November 2014 ridership</t>
+  </si>
+  <si>
+    <t>December 2014 ridership</t>
+  </si>
+  <si>
+    <t>Total average 2014 ridership</t>
+  </si>
+  <si>
+    <t>January 2015 ridership</t>
+  </si>
+  <si>
+    <t>February 2015 ridership</t>
+  </si>
+  <si>
+    <t>March 2015 ridership</t>
+  </si>
+  <si>
+    <t>April 2015 ridership</t>
+  </si>
+  <si>
+    <t>May 2015 ridership</t>
+  </si>
+  <si>
+    <t>June 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>July 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>August 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>September 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>October 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>November 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>December 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>Total 2014 average daily ridership</t>
+  </si>
+  <si>
+    <t>January 2015 average daily ridership</t>
+  </si>
+  <si>
+    <t>February 2015 average daily ridership</t>
+  </si>
+  <si>
+    <t>March 2015 average daily ridership</t>
+  </si>
+  <si>
+    <t>April 2015 average daily ridership</t>
+  </si>
+  <si>
+    <t>May 2015 average daily ridership</t>
+  </si>
+  <si>
+    <t>Total 2015 average daily ridership</t>
+  </si>
+  <si>
+    <t>LRT Blue Line station</t>
   </si>
 </sst>
 </file>
@@ -253,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -292,6 +394,24 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,10 +430,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -349,9 +489,38 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -683,7 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="A1:AB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -2842,6 +3013,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2854,7 +3026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -3283,6 +3457,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3293,30 +3468,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="15" customFormat="1">
+      <c r="A6" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="B6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>72</v>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3327,26 +3536,302 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2015</v>
+    <row r="2" spans="1:2" s="15" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18">
+        <v>41791</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18">
+        <v>41821</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18">
+        <v>41852</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18">
+        <v>41883</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18">
+        <v>41913</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18">
+        <v>41944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18">
+        <v>41974</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18">
+        <v>42005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="18">
+        <v>42036</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="18">
+        <v>42064</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18">
+        <v>42095</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="18">
+        <v>42125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="18">
+        <v>42005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="18">
+        <v>42036</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="18">
+        <v>42064</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="18">
+        <v>42095</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="18">
+        <v>42125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
